--- a/pruebas/Caso_de_prueba_2_Cerrar_sesion.xlsx
+++ b/pruebas/Caso_de_prueba_2_Cerrar_sesion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`\Desktop\MicroBlog\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDRES\Documents\GitHub\ingSoft2017\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Caso de Prueba</t>
   </si>
@@ -45,37 +45,40 @@
     <t>Procedimiento de Prueba: Cerrar sesión</t>
   </si>
   <si>
-    <t>1- Ingresar a la pantalla del tablón o página principal.</t>
-  </si>
-  <si>
     <t>2- Presionar botón cerrar sesión</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>Lograr un correcto deslogueo del usuario logueado</t>
-  </si>
-  <si>
     <t>Usuario en pagina principal</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>Usuario en tablon</t>
-  </si>
-  <si>
-    <t>precionar botón cerrar sesión</t>
-  </si>
-  <si>
-    <t>muestra pantalla iniciar sesión</t>
+    <t>1- Ingresar a la pantalla del tablón de anuncios o página principal.</t>
+  </si>
+  <si>
+    <t>Lograr un correctocierre de sesión  del usuario logueado</t>
+  </si>
+  <si>
+    <t>Lograr un correcto cierre de sesión del usuario logueado</t>
+  </si>
+  <si>
+    <t>Usuario en tablon de anuncios</t>
+  </si>
+  <si>
+    <t>Precionar botón cerrar sesión</t>
+  </si>
+  <si>
+    <t>Muestra pantalla iniciar sesión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,6 +176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,9 +186,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,67 +471,67 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
+    <col min="1" max="1" width="10.625"/>
     <col min="2" max="2" width="51"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="1025" width="10.5703125"/>
+    <col min="7" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -552,37 +555,37 @@
     </row>
     <row r="7" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1"/>
     </row>

--- a/pruebas/Caso_de_prueba_2_Cerrar_sesion.xlsx
+++ b/pruebas/Caso_de_prueba_2_Cerrar_sesion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Caso de Prueba</t>
   </si>
@@ -51,9 +51,6 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>Usuario en pagina principal</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -66,13 +63,19 @@
     <t>Lograr un correcto cierre de sesión del usuario logueado</t>
   </si>
   <si>
-    <t>Usuario en tablon de anuncios</t>
-  </si>
-  <si>
     <t>Precionar botón cerrar sesión</t>
   </si>
   <si>
     <t>Muestra pantalla iniciar sesión</t>
+  </si>
+  <si>
+    <t>1- Estar logueado en el sistema,</t>
+  </si>
+  <si>
+    <t>Estar logueado con una cuenta de Usuario en el sistema en tablon de anuncios.</t>
+  </si>
+  <si>
+    <t>Estar logueado con una cuenta de Usuario en el sistema en página principal.</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,11 +163,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,6 +213,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,17 +504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.625"/>
     <col min="2" max="2" width="51"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="33.25" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
@@ -496,18 +532,16 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -516,94 +550,116 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:F5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
